--- a/NtierMvc/App_Data/Document/temp/QTMOT21225Rev01.xlsx
+++ b/NtierMvc/App_Data/Document/temp/QTMOT21225Rev01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Document\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81AB7611-3A5F-4378-9353-1778AE90B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BEC9E1B-8F05-4DA4-BE83-528AFFE2668C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
